--- a/老年大学教务平台服务端.xlsx
+++ b/老年大学教务平台服务端.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WWW\xmind\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BFE161-EDA1-40AF-80C5-83C2F1E49072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5408E5B9-ECAE-4DFA-A5F3-EC5EF543CED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3975" yWindow="2010" windowWidth="28800" windowHeight="14685" tabRatio="853" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="279">
   <si>
     <t>序号</t>
   </si>
@@ -981,221 +981,52 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>上传到程序后，单开一个进程进行检测</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>具体维护字段</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心，微信消息推送，IM</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息中心系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否要支持多平台？</t>
-  </si>
-  <si>
-    <t>问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否要支持多平台？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单独的短信模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>模块</t>
+    <t>支持使用智慧黑板登录“教研资源系统”(下文有详细描述)，查找、预览、下载课件，用于教室内显示设备直接播放使用；可以支持PPT、Word、ExcelTXT等多种格式的课件在线预览功能；可以在手机上浏览所有可以阅读的文档。</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
     <t>短信模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>虚拟文件管理系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>统一上传，可能需要本地存贮</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMS</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>表格导出</t>
-  </si>
-  <si>
-    <t>表格导出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付模块</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支付，发票打印</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否要对接那边的财政系统接口？</t>
-  </si>
-  <si>
-    <t>是否要对接那边的财政系统接口？</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据导入</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>定时推送，历史记录</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>人脸，考勤机，定位，表格导出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>考勤设备（）</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>迟到处理</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>支持使用智慧黑板登录“教研资源系统”(下文有详细描述)，查找、预览、下载课件，用于教室内显示设备直接播放使用；可以支持PPT、Word、ExcelTXT等多种格式的课件在线预览功能；可以在手机上浏览所有可以阅读的文档。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>PPT、Word、ExcelTXT,在线预览</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户画像</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>导出</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>评价系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>直播接口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>后台播放</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>实时音视频</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>硬件配合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>医院</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>点餐系统</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">资产管理 </t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>短信模块</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚拟文件管理系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文件上传</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>表格导入导出</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>支付系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>档案管理系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>教务系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>考勤打卡系统</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>文件共享</t>
-    <phoneticPr fontId="11" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>财产管理</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>对接应急中心</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>在线问诊</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否在其他表里存文件表 id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>党组织管理主要是统计记录所有的党组织的学员党员组织信息，可以详细的了解到各党支部、党小组的发展情况，了解到各组织的联络人及联系方式。</t>
@@ -1298,10 +1129,6 @@
   </si>
   <si>
     <t>老年大学关工委</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>11</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1313,7 +1140,7 @@
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="[DBNum2][$-804]General"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1362,15 +1189,6 @@
       <name val="仿宋"/>
       <family val="3"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1446,7 +1264,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1507,17 +1325,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -1542,7 +1349,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="12">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1553,32 +1360,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" applyFont="0" applyFill="0" applyAlignment="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1600,223 +1404,185 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="0" xfId="4" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="0" xfId="6" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="0" xfId="5" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="7" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="7" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="9" fillId="7" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="176" fontId="9" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="8" fillId="7" borderId="0" xfId="8" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="176" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="0" xfId="10" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="0" xfId="9" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="5" xfId="4" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="6" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="0" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="6" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="6" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="3" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="4" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="0" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="4" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="4" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="6" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="7" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="5" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="2" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="4" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="1" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="3" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="2" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="2" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="3" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="4" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="5" borderId="4" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="8" borderId="1" xfId="10" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="2" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="3" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="8" borderId="1" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="3" borderId="4" xfId="5" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="2" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="6" borderId="1" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="7" borderId="4" xfId="8" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="2" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="7" borderId="4" xfId="9" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="6" xfId="7" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="4" borderId="1" xfId="6" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="5" borderId="1" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="11" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="12">
+  <cellStyles count="11">
     <cellStyle name="0,0_x000d__x000a_NA_x000d__x000a_" xfId="2" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
-    <cellStyle name="20% - 着色 1" xfId="5" builtinId="30"/>
-    <cellStyle name="20% - 着色 2" xfId="6" builtinId="34"/>
-    <cellStyle name="20% - 着色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="20% - 着色 4" xfId="8" builtinId="42"/>
-    <cellStyle name="20% - 着色 5" xfId="9" builtinId="46"/>
-    <cellStyle name="20% - 着色 6" xfId="10" builtinId="50"/>
+    <cellStyle name="20% - 着色 1" xfId="4" builtinId="30"/>
+    <cellStyle name="20% - 着色 2" xfId="5" builtinId="34"/>
+    <cellStyle name="20% - 着色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="20% - 着色 4" xfId="7" builtinId="42"/>
+    <cellStyle name="20% - 着色 5" xfId="8" builtinId="46"/>
+    <cellStyle name="20% - 着色 6" xfId="9" builtinId="50"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 10 4 2" xfId="1" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
     <cellStyle name="常规 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
-    <cellStyle name="汇总" xfId="4" builtinId="25"/>
-    <cellStyle name="样式 1" xfId="11" xr:uid="{FE11F4B5-6876-41FE-8029-BF7363D35F0F}"/>
+    <cellStyle name="样式 1" xfId="10" xr:uid="{FE11F4B5-6876-41FE-8029-BF7363D35F0F}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2089,11 +1855,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I120"/>
+  <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="25.15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2103,11 +1869,10 @@
     <col min="3" max="3" width="11.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.875" style="1" customWidth="1"/>
     <col min="5" max="5" width="58.25" style="2" customWidth="1"/>
-    <col min="6" max="8" width="37.125" style="36" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="1"/>
+    <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -2123,25 +1888,16 @@
       <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="75" t="s">
-        <v>322</v>
-      </c>
-      <c r="G1" s="36" t="s">
-        <v>250</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:5" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="8">
         <f t="shared" ref="A2:A18" si="0">ROW()-1</f>
         <v>1</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="43" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="43" t="s">
         <v>2</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -2150,121 +1906,96 @@
       <c r="E2" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="37"/>
-      <c r="G2" s="37"/>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8">
         <v>2</v>
       </c>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
       <c r="D3" s="9" t="s">
         <v>218</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-    </row>
-    <row r="4" spans="1:8" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:5" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="C4" s="67"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="9" t="s">
         <v>210</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-    </row>
-    <row r="5" spans="1:8" s="11" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:5" s="11" customFormat="1" ht="52.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
       <c r="D5" s="9" t="s">
         <v>211</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="37"/>
-    </row>
-    <row r="6" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:5" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
         <v>5</v>
       </c>
-      <c r="B6" s="67"/>
-      <c r="C6" s="67"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44"/>
       <c r="D6" s="9" t="s">
         <v>213</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-    </row>
-    <row r="7" spans="1:8" s="11" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:5" s="11" customFormat="1" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B7" s="67"/>
-      <c r="C7" s="67"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="44"/>
       <c r="D7" s="9" t="s">
         <v>212</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="F7" s="37" t="s">
-        <v>243</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-    </row>
-    <row r="8" spans="1:8" s="11" customFormat="1" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:5" s="11" customFormat="1" ht="80.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B8" s="67"/>
-      <c r="C8" s="68"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
       <c r="D8" s="9" t="s">
         <v>228</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>229</v>
       </c>
-      <c r="F8" s="37" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="37"/>
-      <c r="H8" s="37"/>
-    </row>
-    <row r="9" spans="1:8" s="11" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:5" s="11" customFormat="1" ht="52.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B9" s="67"/>
-      <c r="C9" s="66" t="s">
+      <c r="B9" s="44"/>
+      <c r="C9" s="43" t="s">
         <v>3</v>
       </c>
       <c r="D9" s="9" t="s">
@@ -2273,43 +2004,27 @@
       <c r="E9" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="F9" s="37" t="s">
-        <v>244</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>245</v>
-      </c>
-      <c r="H9" s="37"/>
-    </row>
-    <row r="10" spans="1:8" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:5" s="11" customFormat="1" ht="78.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8">
         <v>9</v>
       </c>
-      <c r="B10" s="67"/>
-      <c r="C10" s="68"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
       <c r="D10" s="9" t="s">
         <v>222</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="F10" s="37" t="s">
-        <v>249</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" s="37" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:5" s="11" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="66" t="s">
+      <c r="B11" s="44"/>
+      <c r="C11" s="43" t="s">
         <v>224</v>
       </c>
       <c r="D11" s="9" t="s">
@@ -2318,41 +2033,27 @@
       <c r="E11" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="1:5" s="11" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B12" s="67"/>
-      <c r="C12" s="68"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
       <c r="D12" s="9" t="s">
         <v>226</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>230</v>
       </c>
-      <c r="F12" s="37" t="s">
-        <v>253</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>252</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" s="11" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:5" s="11" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B13" s="68"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="9" t="s">
         <v>232</v>
       </c>
@@ -2362,110 +2063,90 @@
       <c r="E13" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-    </row>
-    <row r="14" spans="1:8" s="15" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:5" s="15" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B14" s="73" t="s">
+      <c r="B14" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="73" t="s">
+      <c r="C14" s="48" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38" t="s">
         <v>254</v>
       </c>
-      <c r="H14" s="38"/>
-    </row>
-    <row r="15" spans="1:8" s="15" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:5" s="15" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B15" s="73"/>
-      <c r="C15" s="73"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="13" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-    </row>
-    <row r="16" spans="1:8" s="15" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:5" s="15" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73" t="s">
+      <c r="B16" s="48"/>
+      <c r="C16" s="48" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="13" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>298</v>
-      </c>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-    </row>
-    <row r="17" spans="1:8" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="15" customFormat="1" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A17" s="12">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B17" s="73"/>
-      <c r="C17" s="73"/>
+      <c r="B17" s="48"/>
+      <c r="C17" s="48"/>
       <c r="D17" s="13" t="s">
         <v>11</v>
       </c>
       <c r="E17" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="1:8" s="15" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="1:5" s="15" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B18" s="73"/>
-      <c r="C18" s="73"/>
+      <c r="B18" s="48"/>
+      <c r="C18" s="48"/>
       <c r="D18" s="13" t="s">
         <v>13</v>
       </c>
       <c r="E18" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-    </row>
-    <row r="19" spans="1:8" s="15" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="1:5" s="15" customFormat="1" ht="66" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="12">
         <f t="shared" ref="A19:A28" si="1">ROW()-1</f>
         <v>18</v>
       </c>
-      <c r="B19" s="73"/>
-      <c r="C19" s="73" t="s">
+      <c r="B19" s="48"/>
+      <c r="C19" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D19" s="13" t="s">
@@ -2474,328 +2155,256 @@
       <c r="E19" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-    </row>
-    <row r="20" spans="1:8" s="15" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:5" s="15" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="12">
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
       <c r="D20" s="13" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-    </row>
-    <row r="21" spans="1:8" s="15" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:5" s="15" customFormat="1" ht="50.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="12">
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="73"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
       <c r="D21" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="F21" s="38"/>
-      <c r="G21" s="38"/>
-      <c r="H21" s="38"/>
-    </row>
-    <row r="22" spans="1:8" s="15" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:5" s="15" customFormat="1" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="73"/>
+      <c r="B22" s="48"/>
+      <c r="C22" s="48"/>
       <c r="D22" s="13" t="s">
         <v>22</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-    </row>
-    <row r="23" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A23" s="12">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
+      <c r="B23" s="48"/>
+      <c r="C23" s="48"/>
       <c r="D23" s="13" t="s">
         <v>24</v>
       </c>
       <c r="E23" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-    </row>
-    <row r="24" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
       <c r="D24" s="13" t="s">
         <v>26</v>
       </c>
       <c r="E24" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F24" s="38"/>
-      <c r="G24" s="38"/>
-      <c r="H24" s="38"/>
-    </row>
-    <row r="25" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A25" s="12">
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B25" s="73"/>
-      <c r="C25" s="73"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="48"/>
       <c r="D25" s="13" t="s">
         <v>28</v>
       </c>
       <c r="E25" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-    </row>
-    <row r="26" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="B26" s="73"/>
-      <c r="C26" s="73"/>
+      <c r="B26" s="48"/>
+      <c r="C26" s="48"/>
       <c r="D26" s="13" t="s">
         <v>30</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="F26" s="38"/>
-      <c r="G26" s="38"/>
-      <c r="H26" s="38"/>
-    </row>
-    <row r="27" spans="1:8" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:5" s="15" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A27" s="12">
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B27" s="73"/>
-      <c r="C27" s="73"/>
+      <c r="B27" s="48"/>
+      <c r="C27" s="48"/>
       <c r="D27" s="13" t="s">
         <v>32</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-    </row>
-    <row r="28" spans="1:8" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:5" s="15" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B28" s="73"/>
-      <c r="C28" s="73"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="48"/>
       <c r="D28" s="13" t="s">
         <v>34</v>
       </c>
       <c r="E28" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-    </row>
-    <row r="29" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="17">
         <f t="shared" ref="A29:A38" si="2">ROW()-1</f>
         <v>28</v>
       </c>
-      <c r="B29" s="60" t="s">
+      <c r="B29" s="49" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="49" t="s">
         <v>37</v>
       </c>
       <c r="D29" s="18" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="19" t="s">
-        <v>319</v>
-      </c>
-      <c r="F29" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="G29" s="46"/>
-      <c r="H29" s="46"/>
-    </row>
-    <row r="30" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="17">
         <f t="shared" si="2"/>
         <v>29</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
       <c r="D30" s="18" t="s">
         <v>39</v>
       </c>
       <c r="E30" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="46"/>
-      <c r="G30" s="46"/>
-      <c r="H30" s="46"/>
-    </row>
-    <row r="31" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="17">
         <f t="shared" si="2"/>
         <v>30</v>
       </c>
-      <c r="B31" s="60"/>
-      <c r="C31" s="60"/>
+      <c r="B31" s="49"/>
+      <c r="C31" s="49"/>
       <c r="D31" s="18" t="s">
         <v>41</v>
       </c>
       <c r="E31" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="46"/>
-      <c r="G31" s="46"/>
-      <c r="H31" s="46"/>
-    </row>
-    <row r="32" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="17">
         <f t="shared" si="2"/>
         <v>31</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="60"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="18" t="s">
-        <v>314</v>
+        <v>271</v>
       </c>
       <c r="E32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="F32" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="G32" s="46"/>
-      <c r="H32" s="46"/>
-    </row>
-    <row r="33" spans="1:8" s="47" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:5" s="38" customFormat="1" ht="203.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="17">
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
-      <c r="B33" s="60"/>
-      <c r="C33" s="60"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="18" t="s">
-        <v>315</v>
+        <v>272</v>
       </c>
       <c r="E33" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="F33" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="G33" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="H33" s="46" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="17">
         <f t="shared" si="2"/>
         <v>33</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="60"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="49"/>
       <c r="D34" s="18" t="s">
-        <v>316</v>
+        <v>273</v>
       </c>
       <c r="E34" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="F34" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="G34" s="46"/>
-      <c r="H34" s="46" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="17">
         <f t="shared" si="2"/>
         <v>34</v>
       </c>
-      <c r="B35" s="60"/>
-      <c r="C35" s="60"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="18" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="E35" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="G35" s="46"/>
-      <c r="H35" s="46"/>
-    </row>
-    <row r="36" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="17">
         <f t="shared" si="2"/>
         <v>35</v>
       </c>
-      <c r="B36" s="60"/>
-      <c r="C36" s="60"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="18" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="E36" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="F36" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="G36" s="46"/>
-      <c r="H36" s="46"/>
-    </row>
-    <row r="37" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="17">
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="B37" s="60"/>
-      <c r="C37" s="56" t="s">
+      <c r="B37" s="49"/>
+      <c r="C37" s="55" t="s">
         <v>48</v>
       </c>
       <c r="D37" s="18" t="s">
@@ -2804,47 +2413,34 @@
       <c r="E37" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="G37" s="46"/>
-      <c r="H37" s="46"/>
-    </row>
-    <row r="38" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="54">
+    </row>
+    <row r="38" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="53">
         <f t="shared" si="2"/>
         <v>37</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="56" t="s">
+      <c r="B38" s="49"/>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="E38" s="58" t="s">
+      <c r="E38" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="74" t="s">
-        <v>256</v>
-      </c>
-      <c r="G38" s="74"/>
-      <c r="H38" s="74"/>
-    </row>
-    <row r="39" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="55"/>
-      <c r="B39" s="60"/>
+    </row>
+    <row r="39" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="54"/>
+      <c r="B39" s="49"/>
       <c r="C39" s="57"/>
       <c r="D39" s="57"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="74"/>
-      <c r="G39" s="74"/>
-      <c r="H39" s="74"/>
-    </row>
-    <row r="40" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="47"/>
+    </row>
+    <row r="40" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="17">
         <v>38</v>
       </c>
-      <c r="B40" s="60"/>
-      <c r="C40" s="60" t="s">
+      <c r="B40" s="49"/>
+      <c r="C40" s="49" t="s">
         <v>51</v>
       </c>
       <c r="D40" s="18" t="s">
@@ -2853,114 +2449,91 @@
       <c r="E40" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="46"/>
-      <c r="G40" s="46"/>
-      <c r="H40" s="46"/>
-    </row>
-    <row r="41" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="17">
         <v>39</v>
       </c>
-      <c r="B41" s="60"/>
-      <c r="C41" s="60"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E41" s="20" t="s">
         <v>55</v>
       </c>
-      <c r="F41" s="46"/>
-      <c r="G41" s="46"/>
-      <c r="H41" s="46"/>
-    </row>
-    <row r="42" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="17">
         <v>40</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="60"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E42" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="F42" s="46"/>
-      <c r="G42" s="46"/>
-      <c r="H42" s="46"/>
-    </row>
-    <row r="43" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17">
         <v>41</v>
       </c>
-      <c r="B43" s="60"/>
-      <c r="C43" s="60"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="18" t="s">
         <v>58</v>
       </c>
       <c r="E43" s="20" t="s">
         <v>59</v>
       </c>
-      <c r="F43" s="46"/>
-      <c r="G43" s="46"/>
-      <c r="H43" s="46"/>
-    </row>
-    <row r="44" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="17">
         <v>42</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="18" t="s">
         <v>60</v>
       </c>
       <c r="E44" s="19" t="s">
         <v>61</v>
       </c>
-      <c r="F44" s="46"/>
-      <c r="G44" s="46"/>
-      <c r="H44" s="46"/>
-    </row>
-    <row r="45" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="17">
         <v>43</v>
       </c>
-      <c r="B45" s="60"/>
-      <c r="C45" s="60"/>
+      <c r="B45" s="49"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="18" t="s">
         <v>62</v>
       </c>
       <c r="E45" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="F45" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="G45" s="48"/>
-      <c r="H45" s="48"/>
-    </row>
-    <row r="46" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="17">
         <v>44</v>
       </c>
-      <c r="B46" s="60"/>
-      <c r="C46" s="60"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="18" t="s">
         <v>64</v>
       </c>
       <c r="E46" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="F46" s="46"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-    </row>
-    <row r="47" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="17">
         <v>45</v>
       </c>
-      <c r="B47" s="60"/>
-      <c r="C47" s="60" t="s">
+      <c r="B47" s="49"/>
+      <c r="C47" s="49" t="s">
         <v>66</v>
       </c>
       <c r="D47" s="18" t="s">
@@ -2969,106 +2542,78 @@
       <c r="E47" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="F47" s="46" t="s">
-        <v>265</v>
-      </c>
-      <c r="G47" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="H47" s="46"/>
-    </row>
-    <row r="48" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="17">
         <v>46</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="60"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="18" t="s">
         <v>68</v>
       </c>
       <c r="E48" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="G48" s="46"/>
-      <c r="H48" s="46"/>
-    </row>
-    <row r="49" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="17">
         <v>47</v>
       </c>
-      <c r="B49" s="60"/>
-      <c r="C49" s="60"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
       <c r="D49" s="18" t="s">
         <v>70</v>
       </c>
       <c r="E49" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="F49" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="G49" s="46"/>
-      <c r="H49" s="46"/>
-    </row>
-    <row r="50" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="17">
         <v>48</v>
       </c>
-      <c r="B50" s="60"/>
-      <c r="C50" s="60"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
       <c r="D50" s="18" t="s">
         <v>72</v>
       </c>
       <c r="E50" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="F50" s="46"/>
-      <c r="G50" s="46"/>
-      <c r="H50" s="46"/>
-    </row>
-    <row r="51" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="17">
         <v>49</v>
       </c>
-      <c r="B51" s="60"/>
-      <c r="C51" s="60"/>
+      <c r="B51" s="49"/>
+      <c r="C51" s="49"/>
       <c r="D51" s="18" t="s">
         <v>74</v>
       </c>
       <c r="E51" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="F51" s="46"/>
-      <c r="G51" s="46"/>
-      <c r="H51" s="46"/>
-    </row>
-    <row r="52" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="17">
         <v>50</v>
       </c>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
+      <c r="B52" s="49"/>
+      <c r="C52" s="49"/>
       <c r="D52" s="18" t="s">
         <v>76</v>
       </c>
       <c r="E52" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F52" s="46" t="s">
-        <v>269</v>
-      </c>
-      <c r="G52" s="46"/>
-      <c r="H52" s="46"/>
-    </row>
-    <row r="53" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="17">
         <v>51</v>
       </c>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60" t="s">
+      <c r="B53" s="49"/>
+      <c r="C53" s="49" t="s">
         <v>78</v>
       </c>
       <c r="D53" s="18" t="s">
@@ -3077,36 +2622,26 @@
       <c r="E53" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="F53" s="46" t="s">
-        <v>268</v>
-      </c>
-      <c r="G53" s="46"/>
-      <c r="H53" s="46"/>
-    </row>
-    <row r="54" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="17">
         <v>52</v>
       </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
+      <c r="B54" s="49"/>
+      <c r="C54" s="49"/>
       <c r="D54" s="18" t="s">
         <v>81</v>
       </c>
       <c r="E54" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="F54" s="46" t="s">
-        <v>256</v>
-      </c>
-      <c r="G54" s="46"/>
-      <c r="H54" s="46"/>
-    </row>
-    <row r="55" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="17">
         <v>53</v>
       </c>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60" t="s">
+      <c r="B55" s="49"/>
+      <c r="C55" s="49" t="s">
         <v>83</v>
       </c>
       <c r="D55" s="18" t="s">
@@ -3115,86 +2650,65 @@
       <c r="E55" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="F55" s="46"/>
-      <c r="G55" s="46"/>
-      <c r="H55" s="46"/>
-    </row>
-    <row r="56" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="17">
         <v>54</v>
       </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
+      <c r="B56" s="49"/>
+      <c r="C56" s="49"/>
       <c r="D56" s="18" t="s">
         <v>86</v>
       </c>
       <c r="E56" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="F56" s="46"/>
-      <c r="G56" s="46"/>
-      <c r="H56" s="46"/>
-    </row>
-    <row r="57" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="57" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="17">
         <v>55</v>
       </c>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
+      <c r="B57" s="49"/>
+      <c r="C57" s="49"/>
       <c r="D57" s="18" t="s">
         <v>88</v>
       </c>
       <c r="E57" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F57" s="46" t="s">
-        <v>271</v>
-      </c>
-      <c r="G57" s="46"/>
-      <c r="H57" s="46"/>
-    </row>
-    <row r="58" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="17">
         <v>56</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
+      <c r="B58" s="49"/>
+      <c r="C58" s="49"/>
       <c r="D58" s="18" t="s">
         <v>89</v>
       </c>
       <c r="E58" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="F58" s="46" t="s">
-        <v>272</v>
-      </c>
-      <c r="G58" s="46"/>
-      <c r="H58" s="46"/>
-    </row>
-    <row r="59" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="59" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="17">
         <v>57</v>
       </c>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
+      <c r="B59" s="49"/>
+      <c r="C59" s="49"/>
       <c r="D59" s="18" t="s">
         <v>91</v>
       </c>
       <c r="E59" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="F59" s="46" t="s">
-        <v>273</v>
-      </c>
-      <c r="G59" s="46"/>
-      <c r="H59" s="46"/>
-    </row>
-    <row r="60" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="17">
         <v>58</v>
       </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60" t="s">
+      <c r="B60" s="49"/>
+      <c r="C60" s="49" t="s">
         <v>93</v>
       </c>
       <c r="D60" s="18" t="s">
@@ -3203,159 +2717,125 @@
       <c r="E60" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="46"/>
-      <c r="H60" s="46"/>
-    </row>
-    <row r="61" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="17">
         <v>59</v>
       </c>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
+      <c r="B61" s="49"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="18" t="s">
         <v>96</v>
       </c>
       <c r="E61" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="F61" s="46"/>
-      <c r="G61" s="46"/>
-      <c r="H61" s="46"/>
-    </row>
-    <row r="62" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="54">
+    </row>
+    <row r="62" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="53">
         <v>60</v>
       </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="56" t="s">
+      <c r="B62" s="49"/>
+      <c r="C62" s="49"/>
+      <c r="D62" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="E62" s="58" t="s">
+      <c r="E62" s="46" t="s">
         <v>207</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="46"/>
-      <c r="H62" s="46"/>
-    </row>
-    <row r="63" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="55"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
+    </row>
+    <row r="63" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="54"/>
+      <c r="B63" s="49"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="57"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="46"/>
-      <c r="G63" s="46"/>
-      <c r="H63" s="46"/>
-    </row>
-    <row r="64" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="47"/>
+    </row>
+    <row r="64" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="17">
         <v>61</v>
       </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
+      <c r="B64" s="49"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="18" t="s">
         <v>99</v>
       </c>
       <c r="E64" s="20" t="s">
         <v>100</v>
       </c>
-      <c r="F64" s="46"/>
-      <c r="G64" s="46"/>
-      <c r="H64" s="46"/>
-    </row>
-    <row r="65" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="65" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="17">
         <v>62</v>
       </c>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
+      <c r="B65" s="49"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="18" t="s">
         <v>101</v>
       </c>
       <c r="E65" s="20" t="s">
         <v>102</v>
       </c>
-      <c r="F65" s="46"/>
-      <c r="G65" s="46"/>
-      <c r="H65" s="46"/>
-    </row>
-    <row r="66" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="66" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="17">
         <v>63</v>
       </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
+      <c r="B66" s="49"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="18" t="s">
         <v>103</v>
       </c>
       <c r="E66" s="19" t="s">
         <v>104</v>
       </c>
-      <c r="F66" s="46"/>
-      <c r="G66" s="46"/>
-      <c r="H66" s="46"/>
-    </row>
-    <row r="67" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="67" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="17">
         <v>64</v>
       </c>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
+      <c r="B67" s="49"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="18" t="s">
         <v>105</v>
       </c>
       <c r="E67" s="20" t="s">
         <v>106</v>
       </c>
-      <c r="F67" s="46" t="s">
-        <v>274</v>
-      </c>
-      <c r="G67" s="46"/>
-      <c r="H67" s="46"/>
-    </row>
-    <row r="68" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="68" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="17">
         <v>65</v>
       </c>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
+      <c r="B68" s="49"/>
+      <c r="C68" s="49"/>
       <c r="D68" s="18" t="s">
         <v>107</v>
       </c>
       <c r="E68" s="19" t="s">
         <v>108</v>
       </c>
-      <c r="F68" s="46"/>
-      <c r="G68" s="46" t="s">
-        <v>275</v>
-      </c>
-      <c r="H68" s="46"/>
-    </row>
-    <row r="69" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="69" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="17">
         <v>66</v>
       </c>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
+      <c r="B69" s="49"/>
+      <c r="C69" s="49"/>
       <c r="D69" s="18" t="s">
         <v>109</v>
       </c>
       <c r="E69" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="F69" s="46"/>
-      <c r="G69" s="46"/>
-      <c r="H69" s="46"/>
-    </row>
-    <row r="70" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="70" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="17">
         <v>67</v>
       </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60" t="s">
-        <v>320</v>
+      <c r="B70" s="49"/>
+      <c r="C70" s="49" t="s">
+        <v>277</v>
       </c>
       <c r="D70" s="18" t="s">
         <v>111</v>
@@ -3363,32 +2843,26 @@
       <c r="E70" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F70" s="46"/>
-      <c r="G70" s="46"/>
-      <c r="H70" s="46"/>
-    </row>
-    <row r="71" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="71" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="17">
         <v>68</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="B71" s="49"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="18" t="s">
         <v>113</v>
       </c>
       <c r="E71" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="F71" s="46"/>
-      <c r="G71" s="46"/>
-      <c r="H71" s="46"/>
-    </row>
-    <row r="72" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="72" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="17">
         <v>69</v>
       </c>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60" t="s">
+      <c r="B72" s="49"/>
+      <c r="C72" s="49" t="s">
         <v>115</v>
       </c>
       <c r="D72" s="18" t="s">
@@ -3397,55 +2871,40 @@
       <c r="E72" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="F72" s="46" t="s">
-        <v>277</v>
-      </c>
-      <c r="G72" s="46" t="s">
-        <v>276</v>
-      </c>
-      <c r="H72" s="46"/>
-    </row>
-    <row r="73" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="73" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="17">
         <v>70</v>
       </c>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
+      <c r="B73" s="49"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="18" t="s">
         <v>117</v>
       </c>
       <c r="E73" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="F73" s="46"/>
-      <c r="G73" s="46"/>
-      <c r="H73" s="46"/>
-    </row>
-    <row r="74" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="74" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="17">
         <v>71</v>
       </c>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
+      <c r="B74" s="49"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="18" t="s">
         <v>119</v>
       </c>
       <c r="E74" s="20" t="s">
         <v>120</v>
       </c>
-      <c r="F74" s="46" t="s">
-        <v>278</v>
-      </c>
-      <c r="G74" s="46"/>
-      <c r="H74" s="46"/>
-    </row>
-    <row r="75" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="75" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="17">
         <v>72</v>
       </c>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60" t="s">
-        <v>321</v>
+      <c r="B75" s="49"/>
+      <c r="C75" s="49" t="s">
+        <v>278</v>
       </c>
       <c r="D75" s="18" t="s">
         <v>121</v>
@@ -3453,152 +2912,121 @@
       <c r="E75" s="20" t="s">
         <v>122</v>
       </c>
-      <c r="F75" s="46"/>
-      <c r="G75" s="46"/>
-      <c r="H75" s="46"/>
-    </row>
-    <row r="76" spans="1:8" s="47" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="76" spans="1:5" s="38" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="17">
         <v>73</v>
       </c>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
+      <c r="B76" s="49"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="18" t="s">
         <v>123</v>
       </c>
       <c r="E76" s="20" t="s">
         <v>124</v>
       </c>
-      <c r="F76" s="46"/>
-      <c r="G76" s="46"/>
-      <c r="H76" s="46"/>
-    </row>
-    <row r="77" spans="1:8" s="53" customFormat="1" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="49">
+    </row>
+    <row r="77" spans="1:5" s="42" customFormat="1" ht="104.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="39">
         <v>74</v>
       </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="50" t="s">
+      <c r="B77" s="50"/>
+      <c r="C77" s="50"/>
+      <c r="D77" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="E77" s="51" t="s">
+      <c r="E77" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="F77" s="52"/>
-      <c r="G77" s="52"/>
-      <c r="H77" s="52"/>
-    </row>
-    <row r="78" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="42">
+    </row>
+    <row r="78" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="35">
         <v>75</v>
       </c>
-      <c r="B78" s="69" t="s">
+      <c r="B78" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="C78" s="69" t="s">
+      <c r="C78" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="D78" s="43" t="s">
+      <c r="D78" s="36" t="s">
         <v>129</v>
       </c>
-      <c r="E78" s="44" t="s">
-        <v>299</v>
-      </c>
-      <c r="F78" s="45"/>
-      <c r="G78" s="45"/>
-      <c r="H78" s="45"/>
-    </row>
-    <row r="79" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="37" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="21">
         <v>76</v>
       </c>
-      <c r="B79" s="69"/>
-      <c r="C79" s="69"/>
+      <c r="B79" s="51"/>
+      <c r="C79" s="51"/>
       <c r="D79" s="22" t="s">
         <v>130</v>
       </c>
       <c r="E79" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="F79" s="39"/>
-      <c r="G79" s="39"/>
-      <c r="H79" s="39"/>
-    </row>
-    <row r="80" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="80" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21">
         <v>77</v>
       </c>
-      <c r="B80" s="69"/>
-      <c r="C80" s="69"/>
+      <c r="B80" s="51"/>
+      <c r="C80" s="51"/>
       <c r="D80" s="22" t="s">
         <v>132</v>
       </c>
       <c r="E80" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="F80" s="39"/>
-      <c r="G80" s="39"/>
-      <c r="H80" s="39"/>
-    </row>
-    <row r="81" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="81" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21">
         <v>78</v>
       </c>
-      <c r="B81" s="69"/>
-      <c r="C81" s="69"/>
+      <c r="B81" s="51"/>
+      <c r="C81" s="51"/>
       <c r="D81" s="22" t="s">
         <v>134</v>
       </c>
       <c r="E81" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="F81" s="39" t="s">
-        <v>257</v>
-      </c>
-      <c r="G81" s="39"/>
-      <c r="H81" s="39"/>
-    </row>
-    <row r="82" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21">
         <v>79</v>
       </c>
-      <c r="B82" s="69"/>
-      <c r="C82" s="69"/>
+      <c r="B82" s="51"/>
+      <c r="C82" s="51"/>
       <c r="D82" s="22" t="s">
         <v>136</v>
       </c>
       <c r="E82" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="F82" s="39"/>
-      <c r="G82" s="39"/>
-      <c r="H82" s="39"/>
-    </row>
-    <row r="83" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="83" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21">
         <v>80</v>
       </c>
-      <c r="B83" s="69"/>
-      <c r="C83" s="69"/>
+      <c r="B83" s="51"/>
+      <c r="C83" s="51"/>
       <c r="D83" s="22" t="s">
         <v>115</v>
       </c>
       <c r="E83" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="F83" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="G83" s="39"/>
-      <c r="H83" s="39"/>
-    </row>
-    <row r="84" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="84" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21">
         <v>81</v>
       </c>
-      <c r="B84" s="69"/>
-      <c r="C84" s="69" t="s">
+      <c r="B84" s="51"/>
+      <c r="C84" s="51" t="s">
         <v>139</v>
       </c>
       <c r="D84" s="22" t="s">
@@ -3607,80 +3035,65 @@
       <c r="E84" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="F84" s="39"/>
-      <c r="G84" s="39"/>
-      <c r="H84" s="39"/>
-    </row>
-    <row r="85" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="85" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21">
         <v>82</v>
       </c>
-      <c r="B85" s="69"/>
-      <c r="C85" s="69"/>
+      <c r="B85" s="51"/>
+      <c r="C85" s="51"/>
       <c r="D85" s="22" t="s">
         <v>141</v>
       </c>
       <c r="E85" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="F85" s="39"/>
-      <c r="G85" s="39"/>
-      <c r="H85" s="39"/>
-    </row>
-    <row r="86" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="86" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21">
         <v>83</v>
       </c>
-      <c r="B86" s="69"/>
-      <c r="C86" s="69"/>
+      <c r="B86" s="51"/>
+      <c r="C86" s="51"/>
       <c r="D86" s="22" t="s">
         <v>143</v>
       </c>
       <c r="E86" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="39"/>
-    </row>
-    <row r="87" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21">
         <v>84</v>
       </c>
-      <c r="B87" s="69"/>
-      <c r="C87" s="69"/>
+      <c r="B87" s="51"/>
+      <c r="C87" s="51"/>
       <c r="D87" s="22" t="s">
         <v>145</v>
       </c>
       <c r="E87" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="39"/>
-    </row>
-    <row r="88" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="88" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="21">
         <v>85</v>
       </c>
-      <c r="B88" s="69"/>
-      <c r="C88" s="69"/>
+      <c r="B88" s="51"/>
+      <c r="C88" s="51"/>
       <c r="D88" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E88" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="39"/>
-    </row>
-    <row r="89" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="89" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="21">
         <v>86</v>
       </c>
-      <c r="B89" s="69"/>
-      <c r="C89" s="69" t="s">
+      <c r="B89" s="51"/>
+      <c r="C89" s="51" t="s">
         <v>149</v>
       </c>
       <c r="D89" s="22" t="s">
@@ -3689,95 +3102,77 @@
       <c r="E89" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="F89" s="39"/>
-      <c r="G89" s="39"/>
-      <c r="H89" s="39"/>
-    </row>
-    <row r="90" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="90" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="21">
         <v>87</v>
       </c>
-      <c r="B90" s="69"/>
-      <c r="C90" s="69"/>
+      <c r="B90" s="51"/>
+      <c r="C90" s="51"/>
       <c r="D90" s="22" t="s">
         <v>152</v>
       </c>
       <c r="E90" s="23" t="s">
         <v>153</v>
       </c>
-      <c r="F90" s="39"/>
-      <c r="G90" s="39"/>
-      <c r="H90" s="39"/>
-    </row>
-    <row r="91" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="91" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="21">
         <v>88</v>
       </c>
-      <c r="B91" s="69"/>
-      <c r="C91" s="69"/>
+      <c r="B91" s="51"/>
+      <c r="C91" s="51"/>
       <c r="D91" s="22" t="s">
         <v>125</v>
       </c>
       <c r="E91" s="23" t="s">
         <v>154</v>
       </c>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="39"/>
-    </row>
-    <row r="92" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="92" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="21">
         <v>89</v>
       </c>
-      <c r="B92" s="69"/>
-      <c r="C92" s="69"/>
+      <c r="B92" s="51"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="22" t="s">
         <v>155</v>
       </c>
       <c r="E92" s="23" t="s">
         <v>156</v>
       </c>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="39"/>
-    </row>
-    <row r="93" spans="1:8" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="93" spans="1:5" s="24" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="21">
         <v>90</v>
       </c>
-      <c r="B93" s="69"/>
-      <c r="C93" s="69"/>
+      <c r="B93" s="51"/>
+      <c r="C93" s="51"/>
       <c r="D93" s="22" t="s">
         <v>147</v>
       </c>
       <c r="E93" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="F93" s="39"/>
-      <c r="G93" s="39"/>
-      <c r="H93" s="39"/>
-    </row>
-    <row r="94" spans="1:8" s="24" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="94" spans="1:5" s="24" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="21">
         <v>91</v>
       </c>
-      <c r="B94" s="69"/>
-      <c r="C94" s="69"/>
+      <c r="B94" s="51"/>
+      <c r="C94" s="51"/>
       <c r="D94" s="22" t="s">
         <v>157</v>
       </c>
       <c r="E94" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="F94" s="39"/>
-      <c r="G94" s="39"/>
-      <c r="H94" s="39"/>
-    </row>
-    <row r="95" spans="1:8" s="28" customFormat="1" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="95" spans="1:5" s="28" customFormat="1" ht="256.14999999999998" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="25">
         <v>92</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="61" t="s">
         <v>159</v>
       </c>
       <c r="C95" s="26" t="s">
@@ -3789,15 +3184,12 @@
       <c r="E95" s="27" t="s">
         <v>161</v>
       </c>
-      <c r="F95" s="40"/>
-      <c r="G95" s="40"/>
-      <c r="H95" s="40"/>
-    </row>
-    <row r="96" spans="1:8" s="28" customFormat="1" ht="229.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="96" spans="1:5" s="28" customFormat="1" ht="229.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="25">
         <v>93</v>
       </c>
-      <c r="B96" s="71"/>
+      <c r="B96" s="62"/>
       <c r="C96" s="26" t="s">
         <v>162</v>
       </c>
@@ -3807,17 +3199,12 @@
       <c r="E96" s="27" t="s">
         <v>163</v>
       </c>
-      <c r="F96" s="40" t="s">
-        <v>274</v>
-      </c>
-      <c r="G96" s="40"/>
-      <c r="H96" s="40"/>
-    </row>
-    <row r="97" spans="1:9" s="32" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="97" spans="1:5" s="32" customFormat="1" ht="113.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="29">
         <v>94</v>
       </c>
-      <c r="B97" s="65" t="s">
+      <c r="B97" s="60" t="s">
         <v>164</v>
       </c>
       <c r="C97" s="30" t="s">
@@ -3829,16 +3216,13 @@
       <c r="E97" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="F97" s="41"/>
-      <c r="G97" s="41"/>
-      <c r="H97" s="41"/>
-    </row>
-    <row r="98" spans="1:9" s="32" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="98" spans="1:5" s="32" customFormat="1" ht="34.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="29">
         <v>95</v>
       </c>
-      <c r="B98" s="65"/>
-      <c r="C98" s="65" t="s">
+      <c r="B98" s="60"/>
+      <c r="C98" s="60" t="s">
         <v>168</v>
       </c>
       <c r="D98" s="30" t="s">
@@ -3847,50 +3231,39 @@
       <c r="E98" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="F98" s="41"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-    </row>
-    <row r="99" spans="1:9" s="32" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:5" s="32" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="29">
         <v>96</v>
       </c>
-      <c r="B99" s="65"/>
-      <c r="C99" s="65"/>
+      <c r="B99" s="60"/>
+      <c r="C99" s="60"/>
       <c r="D99" s="30" t="s">
         <v>171</v>
       </c>
       <c r="E99" s="31" t="s">
         <v>172</v>
       </c>
-      <c r="F99" s="41" t="s">
-        <v>280</v>
-      </c>
-      <c r="G99" s="41"/>
-      <c r="H99" s="41"/>
-    </row>
-    <row r="100" spans="1:9" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="100" spans="1:5" s="32" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A100" s="29">
         <v>97</v>
       </c>
-      <c r="B100" s="65"/>
-      <c r="C100" s="65"/>
+      <c r="B100" s="60"/>
+      <c r="C100" s="60"/>
       <c r="D100" s="30" t="s">
         <v>173</v>
       </c>
       <c r="E100" s="31" t="s">
         <v>174</v>
       </c>
-      <c r="F100" s="41"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-    </row>
-    <row r="101" spans="1:9" s="32" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="101" spans="1:5" s="32" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="29">
         <v>98</v>
       </c>
-      <c r="B101" s="65"/>
-      <c r="C101" s="65" t="s">
+      <c r="B101" s="60"/>
+      <c r="C101" s="60" t="s">
         <v>175</v>
       </c>
       <c r="D101" s="30" t="s">
@@ -3899,52 +3272,41 @@
       <c r="E101" s="31" t="s">
         <v>177</v>
       </c>
-      <c r="F101" s="41"/>
-      <c r="G101" s="41"/>
-      <c r="H101" s="41"/>
-    </row>
-    <row r="102" spans="1:9" s="32" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="102" spans="1:5" s="32" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="29">
         <v>99</v>
       </c>
-      <c r="B102" s="65"/>
-      <c r="C102" s="65"/>
+      <c r="B102" s="60"/>
+      <c r="C102" s="60"/>
       <c r="D102" s="30" t="s">
         <v>178</v>
       </c>
       <c r="E102" s="31" t="s">
         <v>179</v>
       </c>
-      <c r="F102" s="41"/>
-      <c r="G102" s="41"/>
-      <c r="H102" s="41"/>
-    </row>
-    <row r="103" spans="1:9" s="32" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="103" spans="1:5" s="32" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="29">
         <v>100</v>
       </c>
-      <c r="B103" s="65"/>
+      <c r="B103" s="60"/>
       <c r="C103" s="30" t="s">
-        <v>300</v>
+        <v>257</v>
       </c>
       <c r="D103" s="30" t="s">
-        <v>301</v>
+        <v>258</v>
       </c>
       <c r="E103" s="31" t="s">
         <v>180</v>
       </c>
-      <c r="F103" s="41" t="s">
-        <v>281</v>
-      </c>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-    </row>
-    <row r="104" spans="1:9" s="32" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="104" spans="1:5" s="32" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="29">
         <v>101</v>
       </c>
-      <c r="B104" s="65"/>
-      <c r="C104" s="63" t="s">
+      <c r="B104" s="60"/>
+      <c r="C104" s="58" t="s">
         <v>237</v>
       </c>
       <c r="D104" s="30" t="s">
@@ -3953,35 +3315,27 @@
       <c r="E104" s="31" t="s">
         <v>240</v>
       </c>
-      <c r="F104" s="41"/>
-      <c r="G104" s="41"/>
-      <c r="H104" s="41"/>
-    </row>
-    <row r="105" spans="1:9" s="32" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="105" spans="1:5" s="32" customFormat="1" ht="51.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="29">
         <v>102</v>
       </c>
-      <c r="B105" s="65"/>
-      <c r="C105" s="64"/>
+      <c r="B105" s="60"/>
+      <c r="C105" s="59"/>
       <c r="D105" s="30" t="s">
         <v>239</v>
       </c>
       <c r="E105" s="31" t="s">
         <v>241</v>
       </c>
-      <c r="F105" s="41" t="s">
-        <v>282</v>
-      </c>
-      <c r="G105" s="41"/>
-      <c r="H105" s="41"/>
-    </row>
-    <row r="106" spans="1:9" s="32" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="106" spans="1:5" s="32" customFormat="1" ht="98.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="29">
         <v>103</v>
       </c>
-      <c r="B106" s="65"/>
-      <c r="C106" s="65" t="s">
-        <v>302</v>
+      <c r="B106" s="60"/>
+      <c r="C106" s="60" t="s">
+        <v>259</v>
       </c>
       <c r="D106" s="30" t="s">
         <v>181</v>
@@ -3989,87 +3343,70 @@
       <c r="E106" s="31" t="s">
         <v>182</v>
       </c>
-      <c r="F106" s="41" t="s">
-        <v>283</v>
-      </c>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-    </row>
-    <row r="107" spans="1:9" s="32" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="107" spans="1:5" s="32" customFormat="1" ht="115.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="29">
         <v>104</v>
       </c>
-      <c r="B107" s="65"/>
-      <c r="C107" s="65"/>
+      <c r="B107" s="60"/>
+      <c r="C107" s="60"/>
       <c r="D107" s="30" t="s">
-        <v>303</v>
+        <v>260</v>
       </c>
       <c r="E107" s="31" t="s">
         <v>183</v>
       </c>
-      <c r="F107" s="41"/>
-      <c r="G107" s="41"/>
-      <c r="H107" s="41"/>
-    </row>
-    <row r="108" spans="1:9" s="32" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="108" spans="1:5" s="32" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="29">
         <v>105</v>
       </c>
-      <c r="B108" s="65"/>
-      <c r="C108" s="65"/>
+      <c r="B108" s="60"/>
+      <c r="C108" s="60"/>
       <c r="D108" s="30" t="s">
-        <v>304</v>
+        <v>261</v>
       </c>
       <c r="E108" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="F108" s="41"/>
-      <c r="G108" s="41"/>
-      <c r="H108" s="41"/>
-    </row>
-    <row r="109" spans="1:9" s="32" customFormat="1" ht="177.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="109" spans="1:5" s="32" customFormat="1" ht="177.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="29">
         <v>106</v>
       </c>
-      <c r="B109" s="65"/>
-      <c r="C109" s="65"/>
+      <c r="B109" s="60"/>
+      <c r="C109" s="60"/>
       <c r="D109" s="30" t="s">
-        <v>305</v>
+        <v>262</v>
       </c>
       <c r="E109" s="31" t="s">
         <v>185</v>
       </c>
-      <c r="F109" s="41"/>
-      <c r="G109" s="41"/>
-      <c r="H109" s="41"/>
-    </row>
-    <row r="110" spans="1:9" s="32" customFormat="1" ht="193.15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="110" spans="1:5" s="32" customFormat="1" ht="193.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="29">
         <v>107</v>
       </c>
-      <c r="B110" s="65"/>
+      <c r="B110" s="60"/>
       <c r="C110" s="30" t="s">
-        <v>306</v>
+        <v>263</v>
       </c>
       <c r="D110" s="30" t="s">
-        <v>307</v>
+        <v>264</v>
       </c>
       <c r="E110" s="33" t="s">
         <v>186</v>
       </c>
-      <c r="F110" s="41"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-    </row>
-    <row r="111" spans="1:9" s="11" customFormat="1" ht="331.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:5" s="11" customFormat="1" ht="331.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="8">
         <v>108</v>
       </c>
-      <c r="B111" s="66" t="s">
+      <c r="B111" s="43" t="s">
         <v>187</v>
       </c>
-      <c r="C111" s="61" t="s">
-        <v>308</v>
+      <c r="C111" s="52" t="s">
+        <v>265</v>
       </c>
       <c r="D111" s="9" t="s">
         <v>188</v>
@@ -4077,33 +3414,26 @@
       <c r="E111" s="34" t="s">
         <v>189</v>
       </c>
-      <c r="F111" s="37"/>
-      <c r="G111" s="37"/>
-      <c r="H111" s="37"/>
-      <c r="I111" s="35"/>
-    </row>
-    <row r="112" spans="1:9" s="11" customFormat="1" ht="53.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="112" spans="1:5" s="11" customFormat="1" ht="53.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="8">
         <v>109</v>
       </c>
-      <c r="B112" s="67"/>
-      <c r="C112" s="61"/>
+      <c r="B112" s="44"/>
+      <c r="C112" s="52"/>
       <c r="D112" s="9" t="s">
         <v>190</v>
       </c>
       <c r="E112" s="34" t="s">
         <v>191</v>
       </c>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="37"/>
-    </row>
-    <row r="113" spans="1:8" s="11" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="113" spans="1:5" s="11" customFormat="1" ht="37.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="8">
         <v>110</v>
       </c>
-      <c r="B113" s="67"/>
-      <c r="C113" s="61" t="s">
+      <c r="B113" s="44"/>
+      <c r="C113" s="52" t="s">
         <v>192</v>
       </c>
       <c r="D113" s="9" t="s">
@@ -4112,152 +3442,109 @@
       <c r="E113" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="F113" s="37"/>
-      <c r="G113" s="37"/>
-      <c r="H113" s="37"/>
-    </row>
-    <row r="114" spans="1:8" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="114" spans="1:5" s="11" customFormat="1" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="8">
         <v>111</v>
       </c>
-      <c r="B114" s="67"/>
-      <c r="C114" s="61"/>
+      <c r="B114" s="44"/>
+      <c r="C114" s="52"/>
       <c r="D114" s="9" t="s">
         <v>195</v>
       </c>
       <c r="E114" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="F114" s="37" t="s">
-        <v>294</v>
-      </c>
-      <c r="G114" s="37"/>
-      <c r="H114" s="37"/>
-    </row>
-    <row r="115" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="115" spans="1:5" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="8">
         <v>112</v>
       </c>
-      <c r="B115" s="67"/>
-      <c r="C115" s="61" t="s">
-        <v>309</v>
+      <c r="B115" s="44"/>
+      <c r="C115" s="52" t="s">
+        <v>266</v>
       </c>
       <c r="D115" s="9" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
       <c r="E115" s="34" t="s">
         <v>197</v>
       </c>
-      <c r="F115" s="37"/>
-      <c r="G115" s="37"/>
-      <c r="H115" s="37"/>
-    </row>
-    <row r="116" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="116" spans="1:5" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A116" s="8">
         <v>113</v>
       </c>
-      <c r="B116" s="67"/>
-      <c r="C116" s="61"/>
+      <c r="B116" s="44"/>
+      <c r="C116" s="52"/>
       <c r="D116" s="9" t="s">
         <v>198</v>
       </c>
       <c r="E116" s="34" t="s">
         <v>199</v>
       </c>
-      <c r="F116" s="37"/>
-      <c r="G116" s="37"/>
-      <c r="H116" s="37"/>
-    </row>
-    <row r="117" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="117" spans="1:5" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A117" s="8">
         <v>114</v>
       </c>
-      <c r="B117" s="67"/>
-      <c r="C117" s="61"/>
+      <c r="B117" s="44"/>
+      <c r="C117" s="52"/>
       <c r="D117" s="9" t="s">
         <v>200</v>
       </c>
       <c r="E117" s="34" t="s">
         <v>201</v>
       </c>
-      <c r="F117" s="37"/>
-      <c r="G117" s="37"/>
-      <c r="H117" s="37"/>
-    </row>
-    <row r="118" spans="1:8" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    </row>
+    <row r="118" spans="1:5" s="11" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A118" s="8">
         <v>115</v>
       </c>
-      <c r="B118" s="67"/>
-      <c r="C118" s="61"/>
+      <c r="B118" s="44"/>
+      <c r="C118" s="52"/>
       <c r="D118" s="9" t="s">
         <v>202</v>
       </c>
       <c r="E118" s="34" t="s">
         <v>203</v>
       </c>
-      <c r="F118" s="37"/>
-      <c r="G118" s="37"/>
-      <c r="H118" s="37"/>
-    </row>
-    <row r="119" spans="1:8" s="11" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="119" spans="1:5" s="11" customFormat="1" ht="145.9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="8">
         <v>116</v>
       </c>
-      <c r="B119" s="67"/>
-      <c r="C119" s="61" t="s">
-        <v>311</v>
+      <c r="B119" s="44"/>
+      <c r="C119" s="52" t="s">
+        <v>268</v>
       </c>
       <c r="D119" s="9" t="s">
-        <v>312</v>
+        <v>269</v>
       </c>
       <c r="E119" s="34" t="s">
         <v>204</v>
       </c>
-      <c r="F119" s="37"/>
-      <c r="G119" s="37"/>
-      <c r="H119" s="37"/>
-    </row>
-    <row r="120" spans="1:8" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="120" spans="1:5" s="11" customFormat="1" ht="36" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="8">
         <v>117</v>
       </c>
-      <c r="B120" s="68"/>
-      <c r="C120" s="61"/>
+      <c r="B120" s="45"/>
+      <c r="C120" s="52"/>
       <c r="D120" s="9" t="s">
-        <v>313</v>
+        <v>270</v>
       </c>
       <c r="E120" s="34" t="s">
         <v>205</v>
       </c>
-      <c r="F120" s="37"/>
-      <c r="G120" s="37"/>
-      <c r="H120" s="37"/>
     </row>
   </sheetData>
-  <mergeCells count="43">
-    <mergeCell ref="F38:F39"/>
-    <mergeCell ref="G38:G39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="C2:C8"/>
-    <mergeCell ref="B2:B13"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="B14:B28"/>
-    <mergeCell ref="B29:B77"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="C16:C18"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="C29:C36"/>
-    <mergeCell ref="C40:C46"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="C89:C94"/>
-    <mergeCell ref="C72:C74"/>
-    <mergeCell ref="C75:C77"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="C47:C52"/>
-    <mergeCell ref="C53:C54"/>
-    <mergeCell ref="C70:C71"/>
+  <mergeCells count="40">
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="C55:C59"/>
+    <mergeCell ref="C60:C69"/>
     <mergeCell ref="C115:C118"/>
     <mergeCell ref="C119:C120"/>
     <mergeCell ref="A38:A39"/>
@@ -4274,11 +3561,25 @@
     <mergeCell ref="B95:B96"/>
     <mergeCell ref="B97:B110"/>
     <mergeCell ref="C78:C83"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="C55:C59"/>
-    <mergeCell ref="C60:C69"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C72:C74"/>
+    <mergeCell ref="C75:C77"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="C47:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C2:C8"/>
+    <mergeCell ref="B2:B13"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="B14:B28"/>
+    <mergeCell ref="B29:B77"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C18"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="C29:C36"/>
+    <mergeCell ref="C40:C46"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.31496062992125984" right="0.23622047244094491" top="0.15748031496062992" bottom="0.31496062992125984" header="0" footer="0.19685039370078741"/>
@@ -4304,55 +3605,55 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>292</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>288</v>
+        <v>247</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>289</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>290</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>291</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="11" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>